--- a/ONCHO/Impact Assessments/Nigeria/2024/cross river/ng_oncho_stop_2411_3_rdtov16_cs.xlsx
+++ b/ONCHO/Impact Assessments/Nigeria/2024/cross river/ng_oncho_stop_2411_3_rdtov16_cs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2024\adamawa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2024\cross river\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D5B3B4-9FC4-4428-819E-A2477B8D353A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD23734-9C8C-4DE6-ABB1-BAF041B61F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="140">
   <si>
     <t>type</t>
   </si>
@@ -324,130 +324,124 @@
     <t>ELISA - Final decision</t>
   </si>
   <si>
-    <t>(Adamawa State 2024 Apr) - 3. ELISA Form Ogun State V2</t>
-  </si>
-  <si>
-    <t>ng_oncho_stop_202404_3_rdtov16_adam_v2</t>
-  </si>
-  <si>
-    <t>ADAMAWA</t>
-  </si>
-  <si>
-    <t>DEMSA</t>
-  </si>
-  <si>
-    <t>FUFORE</t>
-  </si>
-  <si>
-    <t>GOMBI</t>
-  </si>
-  <si>
-    <t>HONG</t>
-  </si>
-  <si>
-    <t>JADA</t>
-  </si>
-  <si>
-    <t>LAMURDE</t>
-  </si>
-  <si>
-    <t>MADAGALI</t>
-  </si>
-  <si>
-    <t>MAIHA</t>
-  </si>
-  <si>
-    <t>MICHIKA</t>
-  </si>
-  <si>
-    <t>MUBI NORTH</t>
-  </si>
-  <si>
-    <t>MUBI SOUTH</t>
-  </si>
-  <si>
-    <t>SHELLENG</t>
-  </si>
-  <si>
-    <t>SONG</t>
-  </si>
-  <si>
-    <t>TOUNGO</t>
-  </si>
-  <si>
-    <t>YOLA NORTH</t>
-  </si>
-  <si>
-    <t>DILLI</t>
-  </si>
-  <si>
-    <t>KARLAHI</t>
-  </si>
-  <si>
-    <t>KOCHEL</t>
-  </si>
-  <si>
-    <t>GUYAKU</t>
-  </si>
-  <si>
-    <t>PUBA</t>
-  </si>
-  <si>
-    <t>ZHEDINYI</t>
-  </si>
-  <si>
-    <t>TISEL</t>
-  </si>
-  <si>
-    <t>BOLLERE</t>
-  </si>
-  <si>
-    <t>DAMAI</t>
-  </si>
-  <si>
-    <t>KWATAMA DAFFA</t>
-  </si>
-  <si>
-    <t>JAMTARI</t>
-  </si>
-  <si>
-    <t>SINA MALA</t>
-  </si>
-  <si>
-    <t>MUCHALLA</t>
-  </si>
-  <si>
-    <t>WURO HAMMAGU</t>
-  </si>
-  <si>
-    <t>DABEWO</t>
-  </si>
-  <si>
-    <t>BAAWO</t>
-  </si>
-  <si>
-    <t>BARANGA</t>
-  </si>
-  <si>
-    <t>GUMTI</t>
-  </si>
-  <si>
-    <t>KOGIN BABA1</t>
-  </si>
-  <si>
-    <t>KOGIN BABA2</t>
-  </si>
-  <si>
-    <t>MAYOBIRIJI</t>
-  </si>
-  <si>
-    <t>TIMBO</t>
-  </si>
-  <si>
-    <t>WURO JATAU</t>
-  </si>
-  <si>
-    <t>YOLA (DOUBELI)</t>
+    <t>ng_oncho_stop_2411_3_rdtov16_cs</t>
+  </si>
+  <si>
+    <t>(Cross River 2024 Nov) - 3. ELISA Form Ogun State V2</t>
+  </si>
+  <si>
+    <t>CROSS RIVER</t>
+  </si>
+  <si>
+    <t>ABI</t>
+  </si>
+  <si>
+    <t>AKAMKPA</t>
+  </si>
+  <si>
+    <t>BOKI</t>
+  </si>
+  <si>
+    <t>OGOJA</t>
+  </si>
+  <si>
+    <t>YAKURR</t>
+  </si>
+  <si>
+    <t>AFAFANYI</t>
+  </si>
+  <si>
+    <t>AKPOHA-IGBO</t>
+  </si>
+  <si>
+    <t>BAZOHURE</t>
+  </si>
+  <si>
+    <t>IGBO EMABAN</t>
+  </si>
+  <si>
+    <t>IJOM</t>
+  </si>
+  <si>
+    <t>IMINA</t>
+  </si>
+  <si>
+    <t>ITIGIDI</t>
+  </si>
+  <si>
+    <t>IYOGUE</t>
+  </si>
+  <si>
+    <t>AKING</t>
+  </si>
+  <si>
+    <t>AKWA IBAMI</t>
+  </si>
+  <si>
+    <t>EKANG</t>
+  </si>
+  <si>
+    <t>EKONG</t>
+  </si>
+  <si>
+    <t>MFAMOSING</t>
+  </si>
+  <si>
+    <t>OKWA 11</t>
+  </si>
+  <si>
+    <t>OKENDE IDP CAMP</t>
+  </si>
+  <si>
+    <t>AGOI IBAMI</t>
+  </si>
+  <si>
+    <t>CRS_AKA_M_001</t>
+  </si>
+  <si>
+    <t>CRS_AKA_M_002</t>
+  </si>
+  <si>
+    <t>CRS_AKA_M_003</t>
+  </si>
+  <si>
+    <t>CRS_AKA_M_004</t>
+  </si>
+  <si>
+    <t>CRS_AKA_M_005</t>
+  </si>
+  <si>
+    <t>CRS_BOK_M_006</t>
+  </si>
+  <si>
+    <t>CRS_OGO_M_007</t>
+  </si>
+  <si>
+    <t>CRS_YAK_M_008</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_009</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_010</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_011</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_012</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_013</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_014</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_015</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_016</t>
   </si>
 </sst>
 </file>
@@ -1290,11 +1284,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1489,7 +1483,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
         <v>73</v>
       </c>
@@ -1500,7 +1494,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
         <v>73</v>
       </c>
@@ -1511,7 +1505,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
         <v>73</v>
       </c>
@@ -1522,7 +1516,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
         <v>96</v>
       </c>
@@ -1533,7 +1527,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
         <v>96</v>
       </c>
@@ -1544,7 +1538,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
         <v>96</v>
       </c>
@@ -1555,10 +1549,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="C23" s="13"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -1569,7 +1563,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -1583,7 +1577,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -1597,7 +1591,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -1611,7 +1605,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1625,7 +1619,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -1639,144 +1633,147 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="31" spans="1:5">
+      <c r="D31" s="21"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
         <v>108</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>102</v>
+      <c r="E32" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>102</v>
+        <v>109</v>
+      </c>
+      <c r="E33" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>102</v>
+        <v>110</v>
+      </c>
+      <c r="E34" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>102</v>
+        <v>111</v>
+      </c>
+      <c r="E35" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" t="s">
-        <v>102</v>
+        <v>112</v>
+      </c>
+      <c r="E36" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" t="s">
-        <v>102</v>
+        <v>113</v>
+      </c>
+      <c r="E37" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" t="s">
-        <v>102</v>
+        <v>114</v>
+      </c>
+      <c r="E38" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" t="s">
-        <v>102</v>
+        <v>115</v>
+      </c>
+      <c r="E39" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" t="s">
         <v>117</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>117</v>
       </c>
-      <c r="D40" t="s">
-        <v>102</v>
+      <c r="E41" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1784,13 +1781,13 @@
         <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="E42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1798,13 +1795,13 @@
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1812,10 +1809,10 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E44" t="s">
         <v>104</v>
@@ -1826,13 +1823,13 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E45" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1840,13 +1837,13 @@
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E46" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1854,716 +1851,237 @@
         <v>56</v>
       </c>
       <c r="B47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" t="s">
+        <v>124</v>
+      </c>
+      <c r="F49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" t="s">
+        <v>125</v>
+      </c>
+      <c r="F50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" t="s">
+        <v>126</v>
+      </c>
+      <c r="F51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" t="s">
+        <v>127</v>
+      </c>
+      <c r="F52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" t="s">
+        <v>128</v>
+      </c>
+      <c r="F53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" t="s">
+        <v>129</v>
+      </c>
+      <c r="F54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" t="s">
+        <v>130</v>
+      </c>
+      <c r="F55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" t="s">
+        <v>131</v>
+      </c>
+      <c r="F56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" t="s">
+        <v>132</v>
+      </c>
+      <c r="F57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" t="s">
+        <v>133</v>
+      </c>
+      <c r="F58" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" t="s">
+        <v>134</v>
+      </c>
+      <c r="F59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" t="s">
+        <v>135</v>
+      </c>
+      <c r="F60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" t="s">
+        <v>136</v>
+      </c>
+      <c r="F61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" t="s">
+        <v>137</v>
+      </c>
+      <c r="F62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" t="s">
+        <v>138</v>
+      </c>
+      <c r="F63" t="s">
         <v>122</v>
       </c>
-      <c r="C47" t="s">
-        <v>122</v>
-      </c>
-      <c r="E47" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" t="s">
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" t="s">
+        <v>139</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="C48" t="s">
-        <v>123</v>
-      </c>
-      <c r="E48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" t="s">
-        <v>107</v>
-      </c>
-      <c r="C49" t="s">
-        <v>107</v>
-      </c>
-      <c r="E49" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C50" t="s">
-        <v>124</v>
-      </c>
-      <c r="E50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" t="s">
-        <v>125</v>
-      </c>
-      <c r="C51" t="s">
-        <v>125</v>
-      </c>
-      <c r="E51" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" t="s">
-        <v>126</v>
-      </c>
-      <c r="C52" t="s">
-        <v>126</v>
-      </c>
-      <c r="E52" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" t="s">
-        <v>127</v>
-      </c>
-      <c r="C53" t="s">
-        <v>127</v>
-      </c>
-      <c r="E53" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54" t="s">
-        <v>109</v>
-      </c>
-      <c r="E54" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" t="s">
-        <v>128</v>
-      </c>
-      <c r="C55" t="s">
-        <v>128</v>
-      </c>
-      <c r="E55" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>129</v>
-      </c>
-      <c r="C56" t="s">
-        <v>129</v>
-      </c>
-      <c r="E56" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>130</v>
-      </c>
-      <c r="C57" t="s">
-        <v>130</v>
-      </c>
-      <c r="E57" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>131</v>
-      </c>
-      <c r="C58" t="s">
-        <v>131</v>
-      </c>
-      <c r="E58" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" t="s">
-        <v>132</v>
-      </c>
-      <c r="C59" t="s">
-        <v>132</v>
-      </c>
-      <c r="E59" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" t="s">
-        <v>133</v>
-      </c>
-      <c r="C60" t="s">
-        <v>133</v>
-      </c>
-      <c r="E60" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>56</v>
-      </c>
-      <c r="B61" t="s">
-        <v>134</v>
-      </c>
-      <c r="C61" t="s">
-        <v>134</v>
-      </c>
-      <c r="E61" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>56</v>
-      </c>
-      <c r="B62" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" t="s">
-        <v>135</v>
-      </c>
-      <c r="E62" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B63" t="s">
-        <v>136</v>
-      </c>
-      <c r="C63" t="s">
-        <v>136</v>
-      </c>
-      <c r="E63" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B64" t="s">
-        <v>137</v>
-      </c>
-      <c r="C64" t="s">
-        <v>137</v>
-      </c>
-      <c r="E64" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B65" t="s">
-        <v>138</v>
-      </c>
-      <c r="C65" t="s">
-        <v>138</v>
-      </c>
-      <c r="E65" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B66" t="s">
-        <v>139</v>
-      </c>
-      <c r="C66" t="s">
-        <v>139</v>
-      </c>
-      <c r="E66" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B67" t="s">
-        <v>116</v>
-      </c>
-      <c r="C67" t="s">
-        <v>116</v>
-      </c>
-      <c r="E67" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B68" t="s">
-        <v>140</v>
-      </c>
-      <c r="C68" t="s">
-        <v>140</v>
-      </c>
-      <c r="E68" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B69" t="s">
-        <v>141</v>
-      </c>
-      <c r="C69" t="s">
-        <v>141</v>
-      </c>
-      <c r="E69" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="10"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B71">
-        <v>401</v>
-      </c>
-      <c r="C71">
-        <v>401</v>
-      </c>
-      <c r="F71" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B72">
-        <v>402</v>
-      </c>
-      <c r="C72">
-        <v>402</v>
-      </c>
-      <c r="F72" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B73">
-        <v>403</v>
-      </c>
-      <c r="C73">
-        <v>403</v>
-      </c>
-      <c r="F73" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B74">
-        <v>404</v>
-      </c>
-      <c r="C74">
-        <v>404</v>
-      </c>
-      <c r="F74" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B75">
-        <v>405</v>
-      </c>
-      <c r="C75">
-        <v>405</v>
-      </c>
-      <c r="F75" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B76">
-        <v>406</v>
-      </c>
-      <c r="C76">
-        <v>406</v>
-      </c>
-      <c r="F76" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B77">
-        <v>407</v>
-      </c>
-      <c r="C77">
-        <v>407</v>
-      </c>
-      <c r="F77" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B78">
-        <v>408</v>
-      </c>
-      <c r="C78">
-        <v>408</v>
-      </c>
-      <c r="F78" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B79">
-        <v>409</v>
-      </c>
-      <c r="C79">
-        <v>409</v>
-      </c>
-      <c r="F79" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B80">
-        <v>410</v>
-      </c>
-      <c r="C80">
-        <v>410</v>
-      </c>
-      <c r="F80" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B81">
-        <v>411</v>
-      </c>
-      <c r="C81">
-        <v>411</v>
-      </c>
-      <c r="F81" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B82">
-        <v>412</v>
-      </c>
-      <c r="C82">
-        <v>412</v>
-      </c>
-      <c r="F82" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83">
-        <v>413</v>
-      </c>
-      <c r="C83">
-        <v>413</v>
-      </c>
-      <c r="F83" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" t="s">
-        <v>88</v>
-      </c>
-      <c r="B84">
-        <v>414</v>
-      </c>
-      <c r="C84">
-        <v>414</v>
-      </c>
-      <c r="F84" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85">
-        <v>415</v>
-      </c>
-      <c r="C85">
-        <v>415</v>
-      </c>
-      <c r="F85" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86">
-        <v>416</v>
-      </c>
-      <c r="C86">
-        <v>416</v>
-      </c>
-      <c r="F86" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" t="s">
-        <v>88</v>
-      </c>
-      <c r="B87">
-        <v>417</v>
-      </c>
-      <c r="C87">
-        <v>417</v>
-      </c>
-      <c r="F87" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88">
-        <v>418</v>
-      </c>
-      <c r="C88">
-        <v>418</v>
-      </c>
-      <c r="F88" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89">
-        <v>419</v>
-      </c>
-      <c r="C89">
-        <v>419</v>
-      </c>
-      <c r="F89" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" t="s">
-        <v>88</v>
-      </c>
-      <c r="B90">
-        <v>420</v>
-      </c>
-      <c r="C90">
-        <v>420</v>
-      </c>
-      <c r="F90" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" t="s">
-        <v>88</v>
-      </c>
-      <c r="B91">
-        <v>421</v>
-      </c>
-      <c r="C91">
-        <v>421</v>
-      </c>
-      <c r="F91" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" t="s">
-        <v>88</v>
-      </c>
-      <c r="B92">
-        <v>422</v>
-      </c>
-      <c r="C92">
-        <v>422</v>
-      </c>
-      <c r="F92" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" t="s">
-        <v>88</v>
-      </c>
-      <c r="B93">
-        <v>423</v>
-      </c>
-      <c r="C93">
-        <v>423</v>
-      </c>
-      <c r="F93" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" t="s">
-        <v>88</v>
-      </c>
-      <c r="B94">
-        <v>424</v>
-      </c>
-      <c r="C94">
-        <v>424</v>
-      </c>
-      <c r="F94" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" t="s">
-        <v>88</v>
-      </c>
-      <c r="B95">
-        <v>425</v>
-      </c>
-      <c r="C95">
-        <v>425</v>
-      </c>
-      <c r="F95" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" t="s">
-        <v>88</v>
-      </c>
-      <c r="B96">
-        <v>426</v>
-      </c>
-      <c r="C96">
-        <v>426</v>
-      </c>
-      <c r="F96" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" t="s">
-        <v>88</v>
-      </c>
-      <c r="B97">
-        <v>427</v>
-      </c>
-      <c r="C97">
-        <v>427</v>
-      </c>
-      <c r="F97" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" t="s">
-        <v>88</v>
-      </c>
-      <c r="B98">
-        <v>428</v>
-      </c>
-      <c r="C98">
-        <v>428</v>
-      </c>
-      <c r="F98" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2578,8 +2096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2601,10 +2119,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>

--- a/ONCHO/Impact Assessments/Nigeria/2024/cross river/ng_oncho_stop_2411_3_rdtov16_cs.xlsx
+++ b/ONCHO/Impact Assessments/Nigeria/2024/cross river/ng_oncho_stop_2411_3_rdtov16_cs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2024\cross river\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD23734-9C8C-4DE6-ABB1-BAF041B61F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D193094-7F02-4F12-B048-C0B0E74C9603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,28 +420,28 @@
     <t>CRS_YAK_M_008</t>
   </si>
   <si>
-    <t>CRS_ABI_IA_009</t>
-  </si>
-  <si>
-    <t>CRS_ABI_IA_010</t>
-  </si>
-  <si>
-    <t>CRS_ABI_IA_011</t>
-  </si>
-  <si>
-    <t>CRS_ABI_IA_012</t>
-  </si>
-  <si>
-    <t>CRS_ABI_IA_013</t>
-  </si>
-  <si>
-    <t>CRS_ABI_IA_014</t>
-  </si>
-  <si>
-    <t>CRS_ABI_IA_015</t>
-  </si>
-  <si>
-    <t>CRS_ABI_IA_016</t>
+    <t>CRS_ABI_IA_001</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_002</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_003</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_004</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_005</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_006</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_007</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_008</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1287,7 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD64"/>
     </sheetView>
   </sheetViews>
@@ -1871,7 +1871,7 @@
         <v>124</v>
       </c>
       <c r="F49" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1885,7 +1885,7 @@
         <v>125</v>
       </c>
       <c r="F50" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1899,7 +1899,7 @@
         <v>126</v>
       </c>
       <c r="F51" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1913,7 +1913,7 @@
         <v>127</v>
       </c>
       <c r="F52" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1927,7 +1927,7 @@
         <v>128</v>
       </c>
       <c r="F53" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1941,7 +1941,7 @@
         <v>129</v>
       </c>
       <c r="F54" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1955,7 +1955,7 @@
         <v>130</v>
       </c>
       <c r="F55" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1969,7 +1969,7 @@
         <v>131</v>
       </c>
       <c r="F56" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1983,7 +1983,7 @@
         <v>132</v>
       </c>
       <c r="F57" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1997,7 +1997,7 @@
         <v>133</v>
       </c>
       <c r="F58" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2011,7 +2011,7 @@
         <v>134</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2025,7 +2025,7 @@
         <v>135</v>
       </c>
       <c r="F60" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2039,7 +2039,7 @@
         <v>136</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2053,7 +2053,7 @@
         <v>137</v>
       </c>
       <c r="F62" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2067,7 +2067,7 @@
         <v>138</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2081,7 +2081,7 @@
         <v>139</v>
       </c>
       <c r="F64" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/ONCHO/Impact Assessments/Nigeria/2024/cross river/ng_oncho_stop_2411_3_rdtov16_cs.xlsx
+++ b/ONCHO/Impact Assessments/Nigeria/2024/cross river/ng_oncho_stop_2411_3_rdtov16_cs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2024\cross river\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D193094-7F02-4F12-B048-C0B0E74C9603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B00DBE2-55E1-41CE-9CE0-D346C838C876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="157">
   <si>
     <t>type</t>
   </si>
@@ -324,12 +324,6 @@
     <t>ELISA - Final decision</t>
   </si>
   <si>
-    <t>ng_oncho_stop_2411_3_rdtov16_cs</t>
-  </si>
-  <si>
-    <t>(Cross River 2024 Nov) - 3. ELISA Form Ogun State V2</t>
-  </si>
-  <si>
     <t>CROSS RIVER</t>
   </si>
   <si>
@@ -442,6 +436,63 @@
   </si>
   <si>
     <t>CRS_ABI_IA_008</t>
+  </si>
+  <si>
+    <t>CALABAR_SOUTH</t>
+  </si>
+  <si>
+    <t>AKPABUYO</t>
+  </si>
+  <si>
+    <t>ANANTIGHA</t>
+  </si>
+  <si>
+    <t>EFUT STREET</t>
+  </si>
+  <si>
+    <t>EKPENE ESUK</t>
+  </si>
+  <si>
+    <t>ELIOTT POINT</t>
+  </si>
+  <si>
+    <t>PARROT CROSSING</t>
+  </si>
+  <si>
+    <t>SMOKE FLATS</t>
+  </si>
+  <si>
+    <t>TECH SCHOOL ROAD</t>
+  </si>
+  <si>
+    <t>CRS_CAS_IA_017</t>
+  </si>
+  <si>
+    <t>CRS_CAS_IA_018</t>
+  </si>
+  <si>
+    <t>CRS_CAS_IA_019</t>
+  </si>
+  <si>
+    <t>CRS_CAS_IA_020</t>
+  </si>
+  <si>
+    <t>CRS_CAS_IA_021</t>
+  </si>
+  <si>
+    <t>CRS_CAS_IA_022</t>
+  </si>
+  <si>
+    <t>CRS_CAS_IA_023</t>
+  </si>
+  <si>
+    <t>CRS_CAS_IA_024</t>
+  </si>
+  <si>
+    <t>(Cross River 2024 Nov) - 3. ELISA Form Ogun State V2.1</t>
+  </si>
+  <si>
+    <t>ng_oncho_stop_2411_3_rdtov16_cs_v2</t>
   </si>
 </sst>
 </file>
@@ -1284,11 +1335,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD64"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1483,7 +1534,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:4">
       <c r="A17" s="5" t="s">
         <v>73</v>
       </c>
@@ -1494,7 +1545,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:4">
       <c r="A18" s="5" t="s">
         <v>73</v>
       </c>
@@ -1505,7 +1556,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:4">
       <c r="A19" s="5" t="s">
         <v>73</v>
       </c>
@@ -1516,7 +1567,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
         <v>96</v>
       </c>
@@ -1527,7 +1578,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
         <v>96</v>
       </c>
@@ -1538,7 +1589,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
         <v>96</v>
       </c>
@@ -1549,105 +1600,102 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:4">
       <c r="C23" s="13"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="D31" s="21"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1655,13 +1703,13 @@
         <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1669,13 +1717,13 @@
         <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1683,13 +1731,13 @@
         <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1697,13 +1745,13 @@
         <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1711,13 +1759,13 @@
         <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1725,13 +1773,13 @@
         <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1739,13 +1787,13 @@
         <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1753,13 +1801,13 @@
         <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E40" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1767,13 +1815,13 @@
         <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E41" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1781,13 +1829,13 @@
         <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1795,13 +1843,13 @@
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1809,13 +1857,13 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E44" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1823,13 +1871,13 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E45" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1837,13 +1885,13 @@
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E46" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1851,153 +1899,156 @@
         <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E47" t="s">
-        <v>107</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" t="s">
+        <v>140</v>
+      </c>
+      <c r="E48" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="10" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
-      </c>
-      <c r="F49" t="s">
-        <v>116</v>
+        <v>141</v>
+      </c>
+      <c r="E49" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="10" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="C50" t="s">
-        <v>125</v>
-      </c>
-      <c r="F50" t="s">
-        <v>117</v>
+        <v>142</v>
+      </c>
+      <c r="E50" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="10" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C51" t="s">
-        <v>126</v>
-      </c>
-      <c r="F51" t="s">
-        <v>118</v>
+        <v>143</v>
+      </c>
+      <c r="E51" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="10" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
-      </c>
-      <c r="F52" t="s">
-        <v>119</v>
+        <v>144</v>
+      </c>
+      <c r="E52" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="10" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="C53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F53" t="s">
-        <v>120</v>
+        <v>145</v>
+      </c>
+      <c r="E53" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="10" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="C54" t="s">
-        <v>129</v>
-      </c>
-      <c r="F54" t="s">
-        <v>121</v>
+        <v>146</v>
+      </c>
+      <c r="E54" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="10" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
-      </c>
-      <c r="F55" t="s">
-        <v>122</v>
+        <v>120</v>
+      </c>
+      <c r="E55" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="10" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
-      </c>
-      <c r="F56" t="s">
-        <v>123</v>
+        <v>121</v>
+      </c>
+      <c r="E56" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B57" t="s">
-        <v>132</v>
-      </c>
-      <c r="C57" t="s">
-        <v>132</v>
-      </c>
-      <c r="F57" t="s">
-        <v>108</v>
-      </c>
+      <c r="A57" s="10"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="10" t="s">
         <v>88</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C58" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F58" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2005,13 +2056,13 @@
         <v>88</v>
       </c>
       <c r="B59" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C59" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F59" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2019,13 +2070,13 @@
         <v>88</v>
       </c>
       <c r="B60" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C60" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F60" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2033,13 +2084,13 @@
         <v>88</v>
       </c>
       <c r="B61" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C61" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="F61" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2047,13 +2098,13 @@
         <v>88</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F62" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2061,13 +2112,13 @@
         <v>88</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F63" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2075,13 +2126,251 @@
         <v>88</v>
       </c>
       <c r="B64" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" t="s">
+        <v>128</v>
+      </c>
+      <c r="F64" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" t="s">
+        <v>129</v>
+      </c>
+      <c r="F65" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" t="s">
+        <v>131</v>
+      </c>
+      <c r="F67" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" t="s">
+        <v>133</v>
+      </c>
+      <c r="F69" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" t="s">
+        <v>135</v>
+      </c>
+      <c r="C71" t="s">
+        <v>135</v>
+      </c>
+      <c r="F71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" t="s">
+        <v>137</v>
+      </c>
+      <c r="C73" t="s">
+        <v>137</v>
+      </c>
+      <c r="F73" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" t="s">
+        <v>147</v>
+      </c>
+      <c r="F74" t="s">
         <v>139</v>
       </c>
-      <c r="C64" t="s">
-        <v>139</v>
-      </c>
-      <c r="F64" t="s">
-        <v>115</v>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76" t="s">
+        <v>149</v>
+      </c>
+      <c r="F76" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" t="s">
+        <v>151</v>
+      </c>
+      <c r="F78" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" t="s">
+        <v>152</v>
+      </c>
+      <c r="C79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80" t="s">
+        <v>153</v>
+      </c>
+      <c r="C80" t="s">
+        <v>153</v>
+      </c>
+      <c r="F80" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" t="s">
+        <v>154</v>
+      </c>
+      <c r="C81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2096,8 +2385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2119,10 +2408,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="9" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>

--- a/ONCHO/Impact Assessments/Nigeria/2024/cross river/ng_oncho_stop_2411_3_rdtov16_cs.xlsx
+++ b/ONCHO/Impact Assessments/Nigeria/2024/cross river/ng_oncho_stop_2411_3_rdtov16_cs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2024\cross river\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2024\cross river\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B00DBE2-55E1-41CE-9CE0-D346C838C876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22358062-20EF-4128-85D5-B50162D0C007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -489,10 +489,10 @@
     <t>CRS_CAS_IA_024</t>
   </si>
   <si>
-    <t>(Cross River 2024 Nov) - 3. ELISA Form Ogun State V2.1</t>
-  </si>
-  <si>
-    <t>ng_oncho_stop_2411_3_rdtov16_cs_v2</t>
+    <t>(Cross River 2024 Nov) - 3. ELISA Form V2.2</t>
+  </si>
+  <si>
+    <t>ng_oncho_stop_2411_3_rdtov16_cs_v2_2</t>
   </si>
 </sst>
 </file>
@@ -2386,7 +2386,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
